--- a/1.data/1.raw/paper_audio/paper_audio.xlsx
+++ b/1.data/1.raw/paper_audio/paper_audio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6.dev\book_data_analysis\1.data\1.raw\paper_audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCAAFCA-A925-4684-9EC3-67C5E477B9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A547250-B139-4C7F-BC1E-B85E2A7618EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{44E701D9-6557-47F1-869B-432306B867B4}"/>
   </bookViews>
@@ -303,97 +303,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -437,11 +393,54 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -458,11 +457,11 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,15 +477,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A9C35B0-1B1F-4025-9A48-C679E0D56ED7}" name="Table1" displayName="Table1" ref="A1:F34" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A9C35B0-1B1F-4025-9A48-C679E0D56ED7}" name="Table1" displayName="Table1" ref="A1:F34" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
   <autoFilter ref="A1:F34" xr:uid="{9A9C35B0-1B1F-4025-9A48-C679E0D56ED7}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A91A1228-CF10-4475-927A-68B3FFD9F268}" name="Titre" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{A90DFAFB-458D-4E06-9177-0F7D294D9451}" name="Auteurs" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{D2FC893B-96CD-4C83-883A-E0548729BE01}" name="date début" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{EE702EDF-AA14-49A7-9918-68968DAD811F}" name="date de lecture" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{BD3AC29D-97A7-49C7-8386-7D296F2EDF4D}" name="# pages lues" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{3C9532B7-2CBF-4C20-B755-68F433699D6B}" name="format" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{A91A1228-CF10-4475-927A-68B3FFD9F268}" name="Titre" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A90DFAFB-458D-4E06-9177-0F7D294D9451}" name="Auteurs" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{D2FC893B-96CD-4C83-883A-E0548729BE01}" name="date début" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{EE702EDF-AA14-49A7-9918-68968DAD811F}" name="date de lecture" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{BD3AC29D-97A7-49C7-8386-7D296F2EDF4D}" name="# pages lues" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{3C9532B7-2CBF-4C20-B755-68F433699D6B}" name="format" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -812,7 +811,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,648 +843,648 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>100</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>100</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>100</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>100</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>45474</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>45488</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>400</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>45464</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>45473</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>292</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>45447</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>45463</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>645</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>45166</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>45185</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>0</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>45166</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>45177</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>0</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>45152</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>45162</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>0</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>45138</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>45143</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>346</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>45135</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>45147</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>682</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>45119</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>45133</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>1200</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>45088</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>45116</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>312</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>45069</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>45087</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>0</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>45065</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>45067</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>0</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>45025</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>45052</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>736</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>45019</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>45023</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>320</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>44984</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>45018</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>439</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>44968</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>44983</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>576</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>44962</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>44968</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>456</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>44957</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>44962</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>181</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>44934</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>44947</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>569</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>44922</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>44933</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>572</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>45703</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>45717</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>650</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>45792</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>45810</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="11">
         <v>460</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>45855</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>45869</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="14" t="s">
+      <c r="E28" s="11"/>
+      <c r="F28" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>45870</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>45888</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="14" t="s">
+      <c r="E29" s="11"/>
+      <c r="F29" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>45847</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>45848</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="11">
         <v>448</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>45904</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>45905</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="14" t="s">
+      <c r="E31" s="11"/>
+      <c r="F31" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>45905</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>45906</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="14" t="s">
+      <c r="E32" s="11"/>
+      <c r="F32" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>45907</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>45921</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="14" t="s">
+      <c r="E33" s="11"/>
+      <c r="F33" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>45921</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="14" t="s">
+      <c r="D34" s="8"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="13" t="s">
         <v>6</v>
       </c>
     </row>
